--- a/Cours -Euro-TND.xlsx
+++ b/Cours -Euro-TND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Perso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{072F0C3B-0E23-4AA2-B92C-9A247F0E2F8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B337041-1972-4975-9343-2D7831418D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17712" activeTab="2" xr2:uid="{267195DE-188C-418A-8905-479395573142}"/>
   </bookViews>
@@ -279,12 +279,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -630,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -667,36 +667,28 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +704,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,14 +1041,14 @@
   <dimension ref="A3:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="38"/>
+    <col min="6" max="6" width="11.5546875" style="36"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1052,10 +1059,10 @@
       <c r="D4" s="20">
         <v>3.375</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="70">
         <v>3.4249999999999998</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="75">
         <v>3.4750000000000001</v>
       </c>
       <c r="G4" s="20">
@@ -1108,7 +1115,7 @@
         <f t="shared" si="0"/>
         <v>12408.759124087592</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="76">
         <f t="shared" si="0"/>
         <v>12230.215827338128</v>
       </c>
@@ -1169,11 +1176,11 @@
         <f t="shared" ref="D6:Q6" si="1">$B6/D4</f>
         <v>13333.333333333334</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="69">
         <f t="shared" si="1"/>
         <v>13138.686131386861</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="77">
         <f t="shared" si="1"/>
         <v>12949.640287769784</v>
       </c>
@@ -1234,11 +1241,11 @@
         <f t="shared" ref="D7:Q7" si="2">$B7/D4</f>
         <v>13629.62962962963</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="69">
         <f t="shared" si="2"/>
         <v>13430.656934306569</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="78">
         <f t="shared" si="2"/>
         <v>13237.410071942446</v>
       </c>
@@ -1299,11 +1306,11 @@
         <f t="shared" ref="D8:Q8" si="3">$B8/D4</f>
         <v>13777.777777777777</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="71">
         <f t="shared" si="3"/>
         <v>13576.642335766424</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="79">
         <f t="shared" si="3"/>
         <v>13381.294964028777</v>
       </c>
@@ -1364,11 +1371,11 @@
         <f t="shared" ref="D9:Q9" si="4">$B9/D4</f>
         <v>13925.925925925925</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="72">
         <f t="shared" si="4"/>
         <v>13722.627737226278</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="80">
         <f t="shared" si="4"/>
         <v>13525.179856115108</v>
       </c>
@@ -1430,11 +1437,11 @@
         <f t="shared" ref="D10:Q10" si="5">$B10/D4</f>
         <v>14074.074074074075</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="31">
         <f t="shared" si="5"/>
         <v>13868.613138686133</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="81">
         <f t="shared" si="5"/>
         <v>13669.064748201439</v>
       </c>
@@ -1495,11 +1502,11 @@
         <f t="shared" ref="D11:Q11" si="6">$B11/D4</f>
         <v>14222.222222222223</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="73">
         <f t="shared" si="6"/>
         <v>14014.598540145986</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="80">
         <f t="shared" si="6"/>
         <v>13812.94964028777</v>
       </c>
@@ -1560,11 +1567,11 @@
         <f t="shared" ref="D12:Q12" si="7">$B12/D4</f>
         <v>14370.37037037037</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="73">
         <f t="shared" si="7"/>
         <v>14160.583941605841</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="80">
         <f t="shared" si="7"/>
         <v>13956.8345323741</v>
       </c>
@@ -1625,11 +1632,11 @@
         <f t="shared" ref="D13:Q13" si="8">$B13/D4</f>
         <v>14518.518518518518</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="73">
         <f t="shared" si="8"/>
         <v>14306.569343065694</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="82">
         <f t="shared" si="8"/>
         <v>14100.719424460431</v>
       </c>
@@ -1690,11 +1697,11 @@
         <f t="shared" ref="D14:Q14" si="9">$B14/D4</f>
         <v>14666.666666666666</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="73">
         <f t="shared" si="9"/>
         <v>14452.554744525549</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="82">
         <f t="shared" si="9"/>
         <v>14244.604316546762</v>
       </c>
@@ -1755,11 +1762,11 @@
         <f t="shared" ref="D15:Q15" si="10">$B15/D4</f>
         <v>14814.814814814816</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="74">
         <f t="shared" si="10"/>
         <v>14598.540145985402</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="83">
         <f t="shared" si="10"/>
         <v>14388.489208633093</v>
       </c>
@@ -1824,30 +1831,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="59">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C4">
@@ -1861,13 +1868,13 @@
         <f>$C$2/C4</f>
         <v>5</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="60" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1877,27 +1884,27 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="53">
+      <c r="C6" s="45">
         <f>$D4+1</f>
         <v>5.69</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <f>$D4+1</f>
         <v>5.69</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="37">
         <f>$D4+1</f>
         <v>5.69</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="37">
         <f>$D4+1</f>
         <v>5.69</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="38">
         <f>$D4+1</f>
         <v>5.69</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="56">
         <f>COUNT(E6:G10)</f>
         <v>15</v>
       </c>
@@ -1915,27 +1922,27 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="55">
+      <c r="C7" s="47">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="48">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="40">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="55">
         <f>COUNT(E11:G15)</f>
         <v>15</v>
       </c>
@@ -1949,27 +1956,27 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="55">
+      <c r="C8" s="47">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="48">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="40">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="54">
         <f>COUNT(C6:D10)</f>
         <v>10</v>
       </c>
@@ -1983,27 +1990,27 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="55">
+      <c r="C9" s="47">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="48">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="39">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="40">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="57">
         <f>COUNT(C11:D15)</f>
         <v>10</v>
       </c>
@@ -2017,139 +2024,139 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="55">
+      <c r="C10" s="47">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="48">
         <f t="shared" ref="D10:F13" si="0">$D7</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="40">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="57">
+      <c r="C11" s="49">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="50">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="42">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="57">
+      <c r="C12" s="49">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="50">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="42">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="57">
+      <c r="C13" s="49">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="50">
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="41">
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="41">
         <f t="shared" si="0"/>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="42">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="57">
+      <c r="C14" s="49">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="50">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="41">
         <f>$D4</f>
         <v>4.6900000000000004</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="42">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="59">
+      <c r="C15" s="51">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="52">
         <f>$D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="43">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="43">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="44">
         <f>D4+0.5</f>
         <v>5.19</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C17">
@@ -2163,13 +2170,13 @@
         <f>$C$2/C17</f>
         <v>6.25</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="60" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2179,27 +2186,27 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="56">
+      <c r="C19" s="48">
         <f>$D$17+1</f>
         <v>6.9124999999999996</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="48">
         <f t="shared" ref="D19:G19" si="1">$D$17+1</f>
         <v>6.9124999999999996</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="39">
         <f t="shared" si="1"/>
         <v>6.9124999999999996</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="39">
         <f t="shared" si="1"/>
         <v>6.9124999999999996</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>6.9124999999999996</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="56">
         <f>COUNT(E19:G22)</f>
         <v>12</v>
       </c>
@@ -2217,27 +2224,27 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="56">
+      <c r="C20" s="48">
         <f>$D$17+0.5</f>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="48">
         <f>$D$17</f>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="39">
         <f t="shared" ref="E20:F25" si="2">$D$17</f>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="39">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="39">
         <f>$D$17+0.5</f>
         <v>6.4124999999999996</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="55">
         <f>COUNT(E23:G26)</f>
         <v>12</v>
       </c>
@@ -2251,27 +2258,27 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="56">
+      <c r="C21" s="48">
         <f t="shared" ref="C21:G26" si="3">$D$17+0.5</f>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="48">
         <f t="shared" ref="D21:D25" si="4">$D$17</f>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="39">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="39">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="39">
         <f t="shared" ref="G21:G25" si="5">$D$17+0.5</f>
         <v>6.4124999999999996</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="54">
         <f>COUNT(C19:D22)</f>
         <v>8</v>
       </c>
@@ -2285,27 +2292,27 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="56">
+      <c r="C22" s="48">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="48">
         <f t="shared" si="4"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="39">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="39">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="39">
         <f t="shared" si="5"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="57">
         <f>COUNT(C23:D26)</f>
         <v>8</v>
       </c>
@@ -2319,101 +2326,101 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="58">
+      <c r="C23" s="50">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="50">
         <f t="shared" si="4"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="41">
         <f t="shared" si="5"/>
         <v>6.4124999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="58">
+      <c r="C24" s="50">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="50">
         <f t="shared" si="4"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="41">
         <f t="shared" si="5"/>
         <v>6.4124999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="58">
+      <c r="C25" s="50">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="50">
         <f t="shared" si="4"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="41">
         <f t="shared" si="2"/>
         <v>5.9124999999999996</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="41">
         <f t="shared" si="5"/>
         <v>6.4124999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="58">
+      <c r="C26" s="50">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="50">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="41">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="41">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="41">
         <f t="shared" si="3"/>
         <v>6.4124999999999996</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="58">
         <v>45</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="53">
         <f>($C$2-14.5)/$C$28</f>
         <v>5.2333333333333334</v>
       </c>
@@ -2421,38 +2428,38 @@
         <f>$C$2/C28</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="68" t="s">
+      <c r="K28" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="56">
+      <c r="C30" s="48">
         <f>$D$28+1</f>
         <v>6.2333333333333334</v>
       </c>
-      <c r="D30" s="56">
+      <c r="D30" s="48">
         <f t="shared" ref="D30:G30" si="6">$D$28+1</f>
         <v>6.2333333333333334</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="39">
         <f>$D$28+1</f>
         <v>6.2333333333333334</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="39">
         <f t="shared" si="6"/>
         <v>6.2333333333333334</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="39">
         <f t="shared" si="6"/>
         <v>6.2333333333333334</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="56">
         <f>COUNT(E30:G34)</f>
         <v>15</v>
       </c>
@@ -2466,27 +2473,27 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="56">
+      <c r="C31" s="48">
         <f>$D$28+0.5</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="48">
         <f>$D$28</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="39">
         <f t="shared" ref="E31:F35" si="7">$D$28</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="39">
         <f>$D$28+0.5</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="55">
         <f>COUNT(E35:G38)</f>
         <v>12</v>
       </c>
@@ -2500,27 +2507,27 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="56">
+      <c r="C32" s="48">
         <f t="shared" ref="C32:G38" si="8">$D$28+0.5</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D32" s="56">
+      <c r="D32" s="48">
         <f t="shared" ref="D32:F37" si="9">$D$28</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="39">
         <f t="shared" ref="G32:G36" si="10">$D$28+0.5</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="54">
         <f>COUNT(C30:D34)</f>
         <v>10</v>
       </c>
@@ -2534,27 +2541,27 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="56">
+      <c r="C33" s="48">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="48">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="39">
         <f t="shared" si="10"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="57">
         <f>COUNT(C35:D38)</f>
         <v>8</v>
       </c>
@@ -2568,111 +2575,111 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="56">
+      <c r="C34" s="48">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D34" s="48">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="39">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="39">
         <f t="shared" si="10"/>
         <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="58">
+      <c r="C35" s="50">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="50">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="41">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="41">
         <f t="shared" si="7"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="41">
         <f t="shared" si="10"/>
         <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="58">
+      <c r="C36" s="50">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="50">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="41">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="41">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="41">
         <f t="shared" si="10"/>
         <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="58">
+      <c r="C37" s="50">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="50">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="41">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="41">
         <f t="shared" si="9"/>
         <v>5.2333333333333334</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="41">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="58">
+      <c r="C38" s="50">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="50">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="41">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="41">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="41">
         <f t="shared" si="8"/>
         <v>5.7333333333333334</v>
       </c>
@@ -2685,42 +2692,42 @@
         <f>($C$2-17.5)/C40</f>
         <v>3.875</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="62">
         <f>$C$2/C40</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="I40" s="68" t="s">
+      <c r="I40" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K40" s="68" t="s">
+      <c r="K40" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="56">
+      <c r="C42" s="48">
         <f>$D$40+1</f>
         <v>4.875</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="48">
         <f t="shared" ref="D42:G42" si="11">$D$40+1</f>
         <v>4.875</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="39">
         <f>$D$40+1</f>
         <v>4.875</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="39">
         <f t="shared" si="11"/>
         <v>4.875</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="39">
         <f t="shared" si="11"/>
         <v>4.875</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="56">
         <f>COUNT(E42:G47)</f>
         <v>18</v>
       </c>
@@ -2734,27 +2741,27 @@
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="56">
+      <c r="C43" s="48">
         <f>$D$40+0.5</f>
         <v>4.375</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="48">
         <f>$D$40</f>
         <v>3.875</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="39">
         <f t="shared" ref="E43:F52" si="12">$D$40</f>
         <v>3.875</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="39">
         <f>$D$40+0.5</f>
         <v>4.375</v>
       </c>
-      <c r="I43" s="63">
+      <c r="I43" s="55">
         <f>COUNT(E48:G53)</f>
         <v>18</v>
       </c>
@@ -2768,27 +2775,27 @@
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="56">
+      <c r="C44" s="48">
         <f t="shared" ref="C44:F53" si="13">$D$40+0.5</f>
         <v>4.375</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="48">
         <f t="shared" ref="D44:D52" si="14">$D$40</f>
         <v>3.875</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="39">
         <f t="shared" ref="G44:G53" si="15">$D$40+0.5</f>
         <v>4.375</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="54">
         <f>COUNT(C42:D47)</f>
         <v>12</v>
       </c>
@@ -2802,27 +2809,27 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="56">
+      <c r="C45" s="48">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="48">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="39">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
-      <c r="I45" s="65">
+      <c r="I45" s="57">
         <f>COUNT(C48:D53)</f>
         <v>12</v>
       </c>
@@ -2836,193 +2843,193 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="56">
+      <c r="C46" s="48">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D46" s="56">
+      <c r="D46" s="48">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E46" s="47">
+      <c r="E46" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="39">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C47" s="56">
+      <c r="C47" s="48">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D47" s="56">
+      <c r="D47" s="48">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="39">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="39">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C48" s="58">
+      <c r="C48" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="50">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G48" s="49">
+      <c r="G48" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="58">
+      <c r="C49" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="50">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="58">
+      <c r="C50" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D50" s="58">
+      <c r="D50" s="50">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="58">
+      <c r="C51" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="50">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="58">
+      <c r="C52" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="50">
         <f t="shared" si="14"/>
         <v>3.875</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="41">
         <f t="shared" si="12"/>
         <v>3.875</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="58">
+      <c r="C53" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="50">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="41">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="41">
         <f t="shared" si="13"/>
         <v>4.375</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="41">
         <f t="shared" si="15"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>72</v>
       </c>
-      <c r="E56" s="70">
+      <c r="E56" s="62">
         <f>$C$2/C56</f>
         <v>3.4722222222222223</v>
       </c>
@@ -3037,7 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A770F913-54D6-4841-BDC8-2F2E7DE920FE}">
   <dimension ref="C3:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3047,7 +3054,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3068,7 +3075,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="60" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3106,7 +3113,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E14">
@@ -3141,14 +3148,14 @@
       </c>
     </row>
     <row r="18" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="66">
         <f>($D4/$D5)+SUM($D9:$D16)+E15</f>
         <v>14250</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="66">
         <f>($D4/$D5)+SUM($D9:$D16)+F15</f>
         <v>15250</v>
       </c>
@@ -3157,46 +3164,46 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="58">
         <f>E18/E14</f>
         <v>142.5</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="58">
         <f>F18/F14</f>
         <v>127.08333333333333</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="65">
         <v>0.25</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="65">
         <v>0.5</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="65">
         <v>0.75</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="65">
         <v>1</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="65">
         <v>1.25</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="65">
         <v>1.5</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="65">
         <v>1.75</v>
       </c>
-      <c r="L21" s="73">
+      <c r="L21" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E23">
@@ -3233,28 +3240,28 @@
       </c>
     </row>
     <row r="25" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="67" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3286,7 +3293,7 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="65">
         <v>0.15</v>
       </c>
       <c r="F27">
@@ -3324,7 +3331,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E30">
@@ -3349,26 +3356,26 @@
       </c>
     </row>
     <row r="32" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E32" s="58">
         <f>E18+E30</f>
         <v>14250</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="58">
         <f>$E18+SUM($E30:F30)</f>
         <v>17200</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="58">
         <f>$E18+SUM($E30:G30)</f>
         <v>20150</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="58">
         <f>$E18+SUM($E30:H30)</f>
         <v>23100</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="58">
         <f>$E18+SUM($E30:I30)</f>
         <v>26050</v>
       </c>

--- a/Cours -Euro-TND.xlsx
+++ b/Cours -Euro-TND.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Perso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B337041-1972-4975-9343-2D7831418D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D69A9F5A-6641-4DA6-A861-BAB3072323C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17712" activeTab="2" xr2:uid="{267195DE-188C-418A-8905-479395573142}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17712" activeTab="3" xr2:uid="{267195DE-188C-418A-8905-479395573142}"/>
   </bookViews>
   <sheets>
     <sheet name="EURO-TND" sheetId="1" r:id="rId1"/>
     <sheet name="Parcel" sheetId="2" r:id="rId2"/>
     <sheet name="Simulation-palm" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>prix/ha</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>Terrasement</t>
-  </si>
-  <si>
-    <t>Creusage</t>
   </si>
   <si>
     <t>Installation eau</t>
@@ -139,6 +137,57 @@
   <si>
     <t>Coût de revient glissant</t>
   </si>
+  <si>
+    <t>Pose</t>
+  </si>
+  <si>
+    <t>Pollunisation</t>
+  </si>
+  <si>
+    <t>Vente Brute</t>
+  </si>
+  <si>
+    <t>N+7</t>
+  </si>
+  <si>
+    <t>N+8</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Prix Kg</t>
+  </si>
+  <si>
+    <t>Rentabilité</t>
+  </si>
+  <si>
+    <t>Vente cumulée</t>
+  </si>
+  <si>
+    <t>N+9</t>
+  </si>
+  <si>
+    <t>N+10</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>Espacement</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>Mâle</t>
+  </si>
+  <si>
+    <t>Femelle</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$TND]"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +312,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -719,6 +782,8 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,6 +804,7643 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphique 13" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE515A2-C1E4-44BC-AF44-4496507CBD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphique 14" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AE826A-86F3-4DB1-8055-A88CF59DD9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6979920" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphique 16" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC92419-E706-49D7-90D7-CA35E93AAC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1150620"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphique 17" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C69FBB-9346-4E3A-B6C0-A545A7C7E7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002280" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphique 18" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD50DF40-EDE2-4CD0-BF95-E91DE0F45E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphique 19" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16D198D-0294-4D8D-BB88-68C9EA374056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphique 20" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6142BD-C5BF-4995-B5FF-CA84A3236E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4175760" y="1158240"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphique 21" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F90933-54CE-4A53-A834-81ED36A82965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="1158240"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphique 22" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47613E44-E169-4FBD-876A-68B07B015A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Graphique 23" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BC84E9-D6B6-4474-9577-A2C1098C1B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="1173480"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphique 24" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCAF4EA-B811-44E7-BC61-1B0E5FB54467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="1173480"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphique 25" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577874E3-96FF-4834-9F70-DCBB4D1B209D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156960" y="1165860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Graphique 65" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2645176-6212-4344-A2FD-5A212BDC9D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583680" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Graphique 66" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C59306-F106-4F5B-AE3F-5F26DA520CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6979920" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Graphique 68" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D510D6C6-BB69-4E13-ADCB-91F61F248935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1584960"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Graphique 69" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D28D1F-73FA-4CB7-8C54-2A3FBE1B3150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002280" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Graphique 70" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEDECDB-A086-4077-8884-A7CFFD398493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Graphique 71" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A42C4CF-7F98-4252-9A9A-67CB3DFA3B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Graphique 72" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23543447-4A68-4EFE-B58C-F548039CF11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4175760" y="1592580"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Graphique 73" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B796DC60-59A6-4C8D-A2C7-48A1A290B5D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="1592580"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Graphique 74" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD283FCD-0D94-4A16-9B51-C86D467E8D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Graphique 75" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9219AF51-B83E-47CC-A03B-C6F5461B3B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="1607820"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Graphique 76" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA67487D-44CA-4C56-BAC1-48541DD701E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="1607820"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Graphique 77" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F239CC6-61BB-42DE-BD44-F95E5B5A3852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156960" y="1600200"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Graphique 78" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB356A2-1B7A-4081-9F7F-5E33F7DCC548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Graphique 79" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF51B86C-A368-4DCD-9CA2-0D7CC7E1B912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Graphique 81" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE3685B-0BD0-4CFA-A8CC-F633B5DF0043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636520" y="2011680"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Graphique 82" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E723977-145C-4100-9C62-A21766DAB0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Graphique 83" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9562C713-AFEB-4F8A-88BC-2823132F19D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3398520" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphique 84" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D11177-7614-4207-BF6A-BD0DD8CE63D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphique 85" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8737448-E2AC-4D72-8366-F569AE9B2518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4183380" y="2019300"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphique 86" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05B28A2-D654-4514-9CB9-BDAE8ABE12C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617720" y="2019300"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Graphique 87" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82BE22C-CDFE-4BDC-983D-E9A80A91A38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Graphique 88" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2DBDAB-7CAE-4109-9BDD-035017B01E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="2034540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>358140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Graphique 89" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E7E5DE-25B4-4267-AEC1-4890223BEF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5775960" y="2034540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Graphique 90" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA698FB-1829-480A-AE32-E615D6902FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6164580" y="2026920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Graphique 91" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D116F603-7F2B-4DD5-A68D-7059A0F401DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Graphique 92" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1ED153B-5F20-43E9-892C-D8E4D6FE2EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6987540" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Graphique 94" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E010A5-BA5A-4B28-A9B9-2C4EA069B0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636520" y="2400300"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Graphique 95" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989689AA-8164-4A5F-AB30-EB1289D54B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Graphique 96" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AD8AF7-117E-461C-B6C0-6C5D4DB62427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3398520" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Graphique 97" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D4233E-396A-4404-ADC1-17A8CF1B349E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Graphique 98" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D397FF-F465-46F2-94AE-DAA31E4A3A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4183380" y="2407920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Graphique 99" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1333DADF-CCC5-44BC-9A7C-0DF57B4A6C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617720" y="2407920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Graphique 100" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E617E5-7ABD-45D0-9640-7892BC258E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Graphique 101" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12F9EF5-079A-4FAE-A187-2FEB8F1F3622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5379720" y="2423160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Graphique 102" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF81352-EF54-46A3-9BC1-B32EB8041DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5775960" y="2423160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Graphique 103" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C28917B-F5C7-4A79-94A4-23BC871C76DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6164580" y="2415540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Graphique 104" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A34C4A-8653-4E75-9445-63A6929E3A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6606540" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Graphique 105" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63EC070-02CE-46B2-81E8-5E3776B1244C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002780" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Graphique 107" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6162E66B-B271-43A3-ABBD-FF1D56240038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="2788920"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Graphique 108" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0383BC1-3DB3-439F-876C-792FA3115362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Graphique 109" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5CB199-C9D0-44D6-9B57-AA421D7EC7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413760" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Graphique 110" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88126634-2CF3-41DC-B5F3-E7846BCABEA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Graphique 111" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E712DF64-9418-41D3-80A8-D7247F6A4C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4198620" y="2796540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Graphique 112" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA903A10-5A51-44E1-9318-B387CE11E5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="2796540"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Graphique 113" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F8BD74-DA82-44AB-BB00-BB68170E05C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5006340" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Graphique 114" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD483AC-40D1-4048-A0F2-9EA2BDE8F570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394960" y="2811780"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Graphique 115" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CF4DFB-BD9D-441B-98E3-317B39550194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="2811780"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Graphique 116" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35C87FF-7A07-4170-ACA5-B3DBBB1C95FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="2804160"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Graphique 117" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4FF4AE-BA86-49B2-9844-C97AD4A1DE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6621780" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Graphique 118" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FA436F-52A3-4A65-B02B-ED43984B1D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Graphique 120" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5698BF1-78B2-44E4-A092-D3C9BAF5F553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="3215640"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Graphique 121" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BF77D8-37CA-4B7E-8107-2177CE8A19C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Graphique 122" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A667C7A9-76C8-45F5-804B-BDA6636E05B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Graphique 123" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47549F64-0FB3-4F12-9D42-C87466ECFA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Graphique 124" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67880B3B-7B30-451F-9D84-3699227EAB47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4213860" y="3223260"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Graphique 125" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB7DF37-9C61-4305-A834-5154C08C9622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="3223260"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Graphique 126" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2E111B-E652-4B25-9BC6-BDE6ACA9C821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5021580" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Graphique 127" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D41AACE-348D-45B3-9E95-DA18405B598A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="3238500"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Graphique 128" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFD8FA5-D607-48EB-A9D2-E460256E6C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806440" y="3238500"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Graphique 129" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3872501B-D5AE-4881-A577-86B1F8369EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6195060" y="3230880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Graphique 182" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724B70A2-743D-459B-A786-3AB066D16BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6606540" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Graphique 183" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6951128-9297-4819-9617-4985381FA503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002780" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Graphique 184" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91373C6A-374E-4379-B0D1-BF2E8512011A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="3611880"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Graphique 185" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24285581-8E1C-4E67-989D-E279B21F68F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Graphique 186" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FED490-96E1-4BCB-988E-63EAD1DB34E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413760" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Graphique 187" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE41E3-5F1E-4783-B10C-86255587ABA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Graphique 188" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835064A9-DD57-4DAD-9193-EFC25315ECE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4198620" y="3619500"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Graphique 189" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBC0B49-ACE1-421B-9204-B25CF19BA853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="3619500"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Graphique 190" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69CC787-8BD9-45E0-895A-80E49020242C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5006340" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Graphique 191" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7094D1FB-3178-4BA7-B0FF-69164C3C89C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394960" y="3634740"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Graphique 192" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5379CCC3-3C8E-4F78-830C-1B88CCC879A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="3634740"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Graphique 193" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8904580B-16BA-484F-8833-3F9B8654AE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="3627120"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="Graphique 194" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24FF614-9B7B-4B04-84ED-DE48809581C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Graphique 195" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD19D34-2AA8-4B17-9FB0-E3DC920FF8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7025640" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Graphique 196" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A57C9DE-4598-4EA4-AF60-68A54E5E6302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674620" y="4023360"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Graphique 197" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBAB988-4831-44C6-978E-4CCCC7C7B3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Graphique 198" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8FB10C-4178-41C9-BE55-DD975D35CF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Graphique 199" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24694A8C-5543-41E8-BEC6-08E4FCBE45B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Graphique 200" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DB1C5B-BC99-43DA-B820-390CF4A7467E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="4030980"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Graphique 201" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCBFE0F-5391-4DB9-A174-0A2B3459054E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="4030980"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="Graphique 202" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F25EDD2-1A56-4DBD-8A8E-C1D15DF17AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Graphique 203" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DC5480-C28F-41F9-91A5-99636C77DD96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="4046220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Graphique 204" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C28FC3-3AD2-40A2-BB78-F03E3AA46269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814060" y="4046220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Graphique 205" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B707A8C3-F68B-45C4-952E-371B0EE7D7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="4038600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Graphique 206" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F29B150-BC00-41CC-AE83-4A62D10B265A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6621780" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Graphique 207" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C9997A-415A-4ED1-B87F-C2D8D2D916A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Graphique 208" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04398F21-55B7-449A-A9CD-1F0965C450EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="4411980"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Graphique 209" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9034DF38-2007-4F6E-96DC-A6BB9BA15C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Graphique 210" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88D1789-58E8-4BEA-874E-6477CD2F7315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="Graphique 211" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A98B51-E1FA-4F91-9E1E-A88609BE9B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Graphique 212" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D303D149-6B31-45D8-ACF9-C7ECF814BEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4213860" y="4419600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Graphique 213" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AEA5CA-A2A9-4E62-B74C-86D9880788C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="4419600"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Graphique 214" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C200D-723E-4A1A-A361-01B90367003F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5021580" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="Graphique 215" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA6C7E4-28A7-409C-AA71-887F905883C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="4434840"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="Graphique 216" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48607CB-4B92-4B68-9771-96093189F709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806440" y="4434840"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="Graphique 217" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0A1020-EE2C-4EE2-92B1-6892471A08A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6195060" y="4427220"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="Graphique 218" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FC9902-C3F6-463B-B469-BCF646C5CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6606540" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="Graphique 219" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48466FDB-A867-442A-8488-A4F22193E913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002780" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="Graphique 220" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65F0F8A-E595-4A47-B200-4D39BD9D3B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="4815840"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="Graphique 221" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240F5C1F-5BC9-4612-ABCC-1D2323DBEFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="Graphique 222" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996868AF-5E48-4935-AF44-AD8E61ADC4A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413760" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="Graphique 223" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA2B0F2-1DEC-4C2E-83D8-56436A2F41B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="Graphique 224" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E1B86C-5894-4A35-9E12-2737F071CB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4198620" y="4823460"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="Graphique 225" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEFBC57-F5B3-4182-BEA1-727873440923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="4823460"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="227" name="Graphique 226" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8AE8E5-664F-41A3-B56D-AB7CFA47B42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5006340" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="228" name="Graphique 227" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97D24DF-2F53-4595-B5BF-72139D891C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394960" y="4838700"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="229" name="Graphique 228" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2C8314-FCAF-4E54-930E-E36D785539FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="4838700"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="230" name="Graphique 229" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B289076-4E4F-486D-B94E-791421AAF313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="4831080"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="231" name="Graphique 230" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D032028-87B6-4E54-8FC9-E6B428D6A7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6614160" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="232" name="Graphique 231" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C141C1-E68A-4F48-B9A9-34C2E27F8CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="233" name="Graphique 232" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE31163C-7B12-4218-A89F-5698C5D30B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659380" y="5234940"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="234" name="Graphique 233" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEF42C7-7526-4FCE-BFC4-A9BF5999C1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032760" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="235" name="Graphique 234" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68946F0D-2509-42AF-9627-478CF1DA8936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="Graphique 235" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E79542-0C2A-4E93-8D3C-32E539BD1FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="Graphique 236" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F58A40-4948-4581-B972-3470115D0BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206240" y="5242560"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="Graphique 237" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2D6C77-9A17-4C79-9D91-52B0000EC17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="5242560"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="239" name="Graphique 238" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6CD7E8-6C2E-4287-A838-085623326C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013960" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="240" name="Graphique 239" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F1AF26-E274-4675-A791-26CECFCED323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402580" y="5257800"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="Graphique 240" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697921FC-588F-4589-ACBC-FC672D2E18AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="5257800"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="Graphique 241" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC08B5FB-E1E9-470F-9CE1-3B1454168580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="5250180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="243" name="Graphique 242" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50649152-613D-4717-9CC2-314C5489E8A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="244" name="Graphique 243" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6864D9A5-31D1-4726-B1FB-2F8CF55D128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7025640" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="245" name="Graphique 244" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C892ABF-81F1-4478-A900-F9C01C62D948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674620" y="5615940"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="Graphique 245" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510EF3A4-346D-446D-8AF8-927789AD6F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="247" name="Graphique 246" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38386BA0-0305-4B07-83BD-19B1193965A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="Graphique 247" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD3D7AD-EB00-4284-BF75-C55D5C35E713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="Graphique 248" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C3823D-281E-41BD-8831-D4F9B8AFADEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="5623560"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="Graphique 249" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27FCE80-C3A2-4F46-B7A5-92A4542E6602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4655820" y="5623560"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="Graphique 250" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B3A31A-851D-4E2C-A264-65307AEFC6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="Graphique 251" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71079E8E-664C-45F2-A840-D787C26BADB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="5638800"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>327660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="Graphique 252" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E192B72A-367F-4EC4-AFBF-8DA458572379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814060" y="5638800"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="254" name="Graphique 253" descr="Palmier">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9094A67-0145-4C4A-A3B4-66299FEC3967}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="5631180"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3042,10 +10744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A770F913-54D6-4841-BDC8-2F2E7DE920FE}">
-  <dimension ref="C3:L32"/>
+  <dimension ref="C3:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3063,12 +10765,12 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3076,7 +10778,7 @@
     </row>
     <row r="8" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -3084,98 +10786,97 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>3500</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <f>D11*0.1</f>
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F14">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15">
         <f>E$14*($D15+$D16)</f>
-        <v>5000</v>
+        <v>8450</v>
       </c>
       <c r="F15">
         <f>F$14*($D15+$D16)</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="66">
         <f>($D4/$D5)+SUM($D9:$D16)+E15</f>
-        <v>14250</v>
+        <v>17050</v>
       </c>
       <c r="F18" s="66">
         <f>($D4/$D5)+SUM($D9:$D16)+F15</f>
-        <v>15250</v>
+        <v>15800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="58">
         <f>E18/E14</f>
-        <v>142.5</v>
+        <v>100.88757396449704</v>
       </c>
       <c r="F19" s="58">
         <f>F18/F14</f>
-        <v>127.08333333333333</v>
+        <v>109.72222222222223</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="65">
         <v>0.25</v>
@@ -3202,78 +10903,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <f>$E18*(1+E21)</f>
-        <v>17812.5</v>
+        <v>21312.5</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:L23" si="0">$E18*(1+F21)</f>
-        <v>21375</v>
+        <v>25575</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>24937.5</v>
+        <v>29837.5</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>34100</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>32062.5</v>
+        <v>38362.5</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>35625</v>
+        <v>42625</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>39187.5</v>
+        <v>46887.5</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>42750</v>
+        <v>51150</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>17</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>18</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:I26" si="1">$D26*12</f>
+        <f t="shared" ref="F26:M26" si="1">$D26*12</f>
         <v>1200</v>
       </c>
       <c r="G26">
@@ -3288,34 +11001,50 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="65">
         <v>0.15</v>
       </c>
       <c r="F27">
         <f t="shared" ref="F27:I27" si="2">$E15*$D$27</f>
-        <v>750</v>
+        <v>1267.5</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1267.5</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1267.5</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1267.5</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -3329,59 +11058,422 @@
       <c r="I28">
         <v>1000</v>
       </c>
+      <c r="J28">
+        <v>3000</v>
+      </c>
+      <c r="K28">
+        <v>1000</v>
+      </c>
+      <c r="L28">
+        <v>3000</v>
+      </c>
+      <c r="M28">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <f>$D29*$E14</f>
+        <v>845</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:M29" si="3">$D29*$E14</f>
+        <v>845</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>845</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>845</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <f>SUM(E26:E29)</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:I30" si="3">SUM(F26:F29)</f>
-        <v>2950</v>
+        <f t="shared" ref="F30:M30" si="4">SUM(F26:F29)</f>
+        <v>3467.5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>2950</v>
+        <f t="shared" si="4"/>
+        <v>3467.5</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>2950</v>
+        <f t="shared" si="4"/>
+        <v>3467.5</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>2950</v>
+        <f t="shared" si="4"/>
+        <v>4312.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>5045</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>3045</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>5045</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>3045</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="58">
         <f>E18+E30</f>
-        <v>14250</v>
+        <v>17050</v>
       </c>
       <c r="F32" s="58">
         <f>$E18+SUM($E30:F30)</f>
-        <v>17200</v>
+        <v>20517.5</v>
       </c>
       <c r="G32" s="58">
         <f>$E18+SUM($E30:G30)</f>
-        <v>20150</v>
+        <v>23985</v>
       </c>
       <c r="H32" s="58">
         <f>$E18+SUM($E30:H30)</f>
-        <v>23100</v>
+        <v>27452.5</v>
       </c>
       <c r="I32" s="58">
         <f>$E18+SUM($E30:I30)</f>
-        <v>26050</v>
+        <v>31765</v>
+      </c>
+      <c r="J32" s="58">
+        <f>$E18+SUM($E30:J30)</f>
+        <v>36810</v>
+      </c>
+      <c r="K32" s="58">
+        <f>$E18+SUM($E30:K30)</f>
+        <v>39855</v>
+      </c>
+      <c r="L32" s="58">
+        <f>$E18+SUM($E30:L30)</f>
+        <v>44900</v>
+      </c>
+      <c r="M32" s="58">
+        <f>$E18+SUM($E30:M30)</f>
+        <v>47945</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>40</v>
+      </c>
+      <c r="K34">
+        <v>60</v>
+      </c>
+      <c r="L34">
+        <v>80</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>I35*I34*$E14</f>
+        <v>6760</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:M36" si="5">J35*J34*$E14</f>
+        <v>13520</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>20280</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>27040</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <f>SUM($H36:I36)</f>
+        <v>6760</v>
+      </c>
+      <c r="J37">
+        <f>SUM($H36:J36)</f>
+        <v>20280</v>
+      </c>
+      <c r="K37">
+        <f>SUM($H36:K36)</f>
+        <v>40560</v>
+      </c>
+      <c r="L37">
+        <f>SUM($H36:L36)</f>
+        <v>67600</v>
+      </c>
+      <c r="M37">
+        <f>SUM($H36:M36)</f>
+        <v>101400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="84">
+        <f>(I36/(I32-H36))</f>
+        <v>0.2128128443255155</v>
+      </c>
+      <c r="J38" s="84">
+        <f t="shared" ref="J38:M38" si="6">(J36/(J32-I36))</f>
+        <v>0.44991680532445921</v>
+      </c>
+      <c r="K38" s="84">
+        <f t="shared" si="6"/>
+        <v>0.77007784317448258</v>
+      </c>
+      <c r="L38" s="84">
+        <f t="shared" si="6"/>
+        <v>1.0982940698619008</v>
+      </c>
+      <c r="M38" s="84">
+        <f t="shared" si="6"/>
+        <v>1.6168380770150681</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE001D5C-2D12-4288-8315-79B1EB22F42E}">
+  <dimension ref="D5:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="2.77734375" customWidth="1"/>
+    <col min="5" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="85"/>
+      <c r="Q10" s="85"/>
+    </row>
+    <row r="11" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="85"/>
+      <c r="Q11" s="85"/>
+    </row>
+    <row r="12" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="85"/>
+      <c r="Q12" s="85"/>
+    </row>
+    <row r="13" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="85"/>
+      <c r="Q13" s="85"/>
+    </row>
+    <row r="14" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="85"/>
+      <c r="Q14" s="85"/>
+    </row>
+    <row r="15" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="85"/>
+      <c r="Q15" s="85"/>
+    </row>
+    <row r="16" spans="4:20" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="85"/>
+      <c r="Q16" s="85"/>
+    </row>
+    <row r="17" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="85"/>
+      <c r="Q17" s="85"/>
+    </row>
+    <row r="18" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="85"/>
+      <c r="Q18" s="85"/>
+    </row>
+    <row r="19" spans="4:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+    </row>
+    <row r="20" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="85"/>
+    </row>
+    <row r="21" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="85"/>
+    </row>
+    <row r="22" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="85"/>
+    </row>
+    <row r="23" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="85"/>
+    </row>
+    <row r="24" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="85"/>
+    </row>
+    <row r="25" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="85"/>
+    </row>
+    <row r="26" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="85"/>
+    </row>
+    <row r="27" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="85"/>
+    </row>
+    <row r="28" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="85"/>
+    </row>
+    <row r="29" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="85"/>
+    </row>
+    <row r="30" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="85"/>
+    </row>
+    <row r="31" spans="4:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="85"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>